--- a/pred_ohlcv/54_23/2019-10-13 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-13 PPT ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -461,10 +461,10 @@
         <v>623</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>624</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>624</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         <v>620</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>619</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         <v>621</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +599,10 @@
         <v>615</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>621</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -645,10 +645,10 @@
         <v>620</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -668,10 +668,10 @@
         <v>621</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>624</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         <v>623</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>619</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -760,10 +760,10 @@
         <v>621</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -783,10 +783,10 @@
         <v>628</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         <v>622</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -829,10 +829,10 @@
         <v>620</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,10 +852,10 @@
         <v>621</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -875,10 +875,10 @@
         <v>617</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -898,10 +898,10 @@
         <v>621</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -921,10 +921,10 @@
         <v>627</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>621</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -967,10 +967,10 @@
         <v>622</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>624</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>620</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1036,10 @@
         <v>620</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         <v>621</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>621</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>625</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>624</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>623</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1289,10 +1289,10 @@
         <v>626</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1680,10 +1680,10 @@
         <v>624</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1726,10 +1726,10 @@
         <v>623</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1772,10 +1772,10 @@
         <v>624</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1795,10 +1795,10 @@
         <v>623</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1818,10 +1818,10 @@
         <v>622</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1864,10 +1864,10 @@
         <v>624</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1887,10 +1887,10 @@
         <v>624</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1910,10 +1910,10 @@
         <v>624</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1933,10 +1933,10 @@
         <v>620</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1956,10 +1956,10 @@
         <v>621</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2002,10 +2002,10 @@
         <v>623</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2025,10 +2025,10 @@
         <v>623</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2048,10 +2048,10 @@
         <v>623</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2071,10 +2071,10 @@
         <v>623</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2094,10 +2094,10 @@
         <v>621</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2117,10 +2117,10 @@
         <v>620</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2140,10 +2140,10 @@
         <v>619</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2163,10 +2163,10 @@
         <v>621</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2186,10 +2186,10 @@
         <v>621</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2209,10 +2209,10 @@
         <v>621</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2232,10 +2232,10 @@
         <v>619</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2255,10 +2255,10 @@
         <v>619</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2278,10 +2278,10 @@
         <v>622</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2301,10 +2301,10 @@
         <v>620</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2324,10 +2324,10 @@
         <v>621</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2347,10 +2347,10 @@
         <v>621</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2370,10 +2370,10 @@
         <v>623</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2393,10 +2393,10 @@
         <v>624</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2416,10 +2416,10 @@
         <v>620</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2439,10 +2439,10 @@
         <v>619</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2462,7 +2462,7 @@
         <v>620</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>619</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>620</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>617</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>620</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>618</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2830,10 +2830,10 @@
         <v>618</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2922,7 +2922,7 @@
         <v>619</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         <v>618</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>618</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>617</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>618</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3290,7 +3290,7 @@
         <v>618</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>618</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>619</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>619</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>619</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -3405,10 +3405,10 @@
         <v>620</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3428,10 +3428,10 @@
         <v>619</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3451,10 +3451,10 @@
         <v>621</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3497,10 +3497,10 @@
         <v>624</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3520,10 +3520,10 @@
         <v>624</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3543,10 +3543,10 @@
         <v>624</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3566,10 +3566,10 @@
         <v>628</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3589,10 +3589,10 @@
         <v>625</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3612,10 +3612,10 @@
         <v>622</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3635,10 +3635,10 @@
         <v>623</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3658,10 +3658,10 @@
         <v>630</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3681,10 +3681,10 @@
         <v>631</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3704,10 +3704,10 @@
         <v>631</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3727,10 +3727,10 @@
         <v>631</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3750,10 +3750,10 @@
         <v>630</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3773,10 +3773,10 @@
         <v>631</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3796,10 +3796,10 @@
         <v>631</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3819,10 +3819,10 @@
         <v>631</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3842,10 +3842,10 @@
         <v>631</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3934,10 +3934,10 @@
         <v>632</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3957,10 +3957,10 @@
         <v>625</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4003,10 +4003,10 @@
         <v>626</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4026,10 +4026,10 @@
         <v>631</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4049,10 +4049,10 @@
         <v>626</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4141,10 +4141,10 @@
         <v>633</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4164,10 +4164,10 @@
         <v>630</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4187,10 +4187,10 @@
         <v>628</v>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4210,10 +4210,10 @@
         <v>630</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4233,10 +4233,10 @@
         <v>628</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4256,10 +4256,10 @@
         <v>626</v>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4417,10 +4417,10 @@
         <v>620</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4440,13 +4440,13 @@
         <v>625</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>